--- a/Voterprj/vote/fixtures/data.xlsx
+++ b/Voterprj/vote/fixtures/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Github/wichit2s/voter/Voterprj/vote/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3340219-FBB3-1A46-8D87-20BE03FA554A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDEC214-4CA6-E14F-9DF3-DBF517BFA5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" activeTab="2" xr2:uid="{E8DE5F48-8300-9443-86B9-E40CF14F32D4}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{E8DE5F48-8300-9443-86B9-E40CF14F32D4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -469,18 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9818D-65CA-5D4E-AEAA-82D3F9748502}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +492,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -501,8 +509,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -512,8 +526,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -522,6 +542,12 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF7DA82-DEFE-154A-B6E6-0D4743372305}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
